--- a/Artificial Intellingence/Python/Datasets/12 Fourth Coffee Financial History.xlsx
+++ b/Artificial Intellingence/Python/Datasets/12 Fourth Coffee Financial History.xlsx
@@ -1,18 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D27CEB-C9EE-4AE9-8987-E8FE3281F565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="11520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales" sheetId="1" r:id="rId1"/>
+    <sheet name="2014 Pie" sheetId="2" r:id="rId1"/>
+    <sheet name="Column" sheetId="3" r:id="rId2"/>
+    <sheet name="Line" sheetId="4" r:id="rId3"/>
+    <sheet name="Coffee Line" sheetId="5" r:id="rId4"/>
+    <sheet name="Total Line" sheetId="6" r:id="rId5"/>
+    <sheet name="Stacked Bar" sheetId="7" r:id="rId6"/>
+    <sheet name="Clustered Bar" sheetId="8" r:id="rId7"/>
+    <sheet name="Sales" sheetId="1" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,10 +62,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -135,16 +152,16 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +185,7733 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7E94-484B-BC15-8752D4BDF968}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7E94-484B-BC15-8752D4BDF968}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7E94-484B-BC15-8752D4BDF968}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7E94-484B-BC15-8752D4BDF968}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7E94-484B-BC15-8752D4BDF968}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Coffee and Espresso</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bakery</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Coffee Accessories</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packaged Coffee/Tea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Deli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7E94-484B-BC15-8752D4BDF968}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coffee and Espresso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55BD-47F0-A284-3C47353631FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bakery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-55BD-47F0-A284-3C47353631FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coffee Accessories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-55BD-47F0-A284-3C47353631FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Packaged Coffee/Tea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-55BD-47F0-A284-3C47353631FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-55BD-47F0-A284-3C47353631FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="579441352"/>
+        <c:axId val="579438400"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="579441352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579438400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579438400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579441352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coffee and Espresso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE64-470C-816B-35281DF7BB85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bakery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE64-470C-816B-35281DF7BB85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coffee Accessories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AE64-470C-816B-35281DF7BB85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Packaged Coffee/Tea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AE64-470C-816B-35281DF7BB85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AE64-470C-816B-35281DF7BB85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="432463504"/>
+        <c:axId val="432463832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="432463504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432463832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="432463832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432463504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D73-4C0E-BB75-5EC375700452}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="578950824"/>
+        <c:axId val="432851576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="578950824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432851576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="432851576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578950824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB62-4665-B4A9-1DCEDA1C482F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="662201656"/>
+        <c:axId val="662201984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="662201656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662201984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="662201984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662201656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coffee and Espresso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C398-4037-A7B8-33B1E0EEF3F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bakery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C398-4037-A7B8-33B1E0EEF3F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coffee Accessories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C398-4037-A7B8-33B1E0EEF3F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Packaged Coffee/Tea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C398-4037-A7B8-33B1E0EEF3F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C398-4037-A7B8-33B1E0EEF3F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="666012192"/>
+        <c:axId val="666011864"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="666012192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666011864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="666011864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666012192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coffee and Espresso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7ED7-47A8-B585-E5CCAFBA88B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bakery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7ED7-47A8-B585-E5CCAFBA88B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coffee Accessories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7ED7-47A8-B585-E5CCAFBA88B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Packaged Coffee/Tea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7ED7-47A8-B585-E5CCAFBA88B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7ED7-47A8-B585-E5CCAFBA88B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="574724968"/>
+        <c:axId val="574725296"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="574724968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574725296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="574725296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574724968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D3F6298E-816E-48E8-A711-9F7A3C648EB9}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{09E73DFD-44A1-4594-8341-2BA833950F4D}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8C60C932-31E8-43D1-B3C9-88DBC928754C}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{93B5E524-FC79-452F-BA84-4CCE29BC371F}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{34C62D5F-55B2-4D8E-8C4D-0FDB41B1565D}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{454A3267-1980-4DAF-944E-DF91396CBEEE}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D664C689-D1A9-486D-9AD8-4474A22087FE}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A520918B-A2E5-4075-865F-8854BE99CC04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C31AA84C-13BF-4CFD-B146-295D105501CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093F1F8C-246C-465D-9F7C-1631752DBC32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239AF772-3B15-40D5-9E9D-0FDF42516C71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EAAF8A-A8FA-48FF-9F2C-BD742E35459C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AD6C49-45CA-41EB-BB10-C2D578801EB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999EED49-44DB-4FB9-86E2-CC7407EF139C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,10 +8176,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
